--- a/tests/integration/models/5 - coupled_model/input_data/input_data.xlsx
+++ b/tests/integration/models/5 - coupled_model/input_data/input_data.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\3a - lca_it_pt\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\5 - coupled_model\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FDAEC-1472-4FF8-9305-6638EB8832C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA821B-4C67-4191-9503-431E575735D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17910" yWindow="3530" windowWidth="17700" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="1610" windowWidth="28800" windowHeight="19890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="u" sheetId="1" r:id="rId1"/>
     <sheet name="r" sheetId="2" r:id="rId2"/>
-    <sheet name="v" sheetId="3" r:id="rId3"/>
+    <sheet name="cd" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cd!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -441,10 +444,15 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -960,7 +968,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,8 +1072,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1073,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1087,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1101,13 +1109,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>-0.33333000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1115,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1129,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1143,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1157,10 +1165,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1171,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1185,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1199,13 +1207,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>1.3333299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1213,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1227,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1241,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1255,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1269,10 +1277,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1283,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1297,10 +1305,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1311,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1325,10 +1333,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1339,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1353,10 +1361,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1367,10 +1375,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1381,10 +1389,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1395,10 +1403,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1409,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1423,13 +1431,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1437,13 +1445,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1451,10 +1459,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1465,10 +1473,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1479,10 +1487,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1493,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1507,10 +1515,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1521,10 +1529,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1535,10 +1543,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1549,13 +1557,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1563,16 +1571,17 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/integration/models/5 - coupled_model/input_data/input_data.xlsx
+++ b/tests/integration/models/5 - coupled_model/input_data/input_data.xlsx
@@ -8,33 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\5 - coupled_model\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A87DB3-DCC0-4671-80DB-2F4DF89D554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE50F9A-5BE2-47EF-8481-86F99D39DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3310" yWindow="3340" windowWidth="21660" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8030" yWindow="2920" windowWidth="20600" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="products_data" sheetId="1" r:id="rId1"/>
-    <sheet name="b" sheetId="2" r:id="rId2"/>
+    <sheet name="x" sheetId="1" r:id="rId1"/>
+    <sheet name="a" sheetId="2" r:id="rId2"/>
+    <sheet name="products_data" sheetId="3" r:id="rId3"/>
+    <sheet name="b" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -42,18 +31,18 @@
     <t>p_Names</t>
   </si>
   <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>product 1</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
     <t>pd_Names</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>product 1</t>
-  </si>
-  <si>
-    <t>unit energy use</t>
-  </si>
-  <si>
     <t>unit energy use, initial</t>
   </si>
   <si>
@@ -61,9 +50,6 @@
   </si>
   <si>
     <t>learning rate</t>
-  </si>
-  <si>
-    <t>product 2</t>
   </si>
   <si>
     <t>r_Names</t>
@@ -76,9 +62,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +74,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,18 +418,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -459,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -470,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -484,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,13 +572,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -515,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -526,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -540,40 +614,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
         <v>-2E-3</v>
       </c>
     </row>
@@ -582,8 +628,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -597,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -608,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>15</v>
